--- a/05 Masterclass/Weeks/Week 03/Slides/Data/02 Interviews/Research data/Codes from analysis.xlsx
+++ b/05 Masterclass/Weeks/Week 03/Slides/Data/02 Interviews/Research data/Codes from analysis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftinsight-my.sharepoint.com/personal/matthew_wood_shift-insight_co_uk/Documents/Documents/Dissertation transcripts/Checked and anonymised/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polar\Downloads\BBK\05 Masterclass\Weeks\Week 03\Slides\Data\02 Interviews\Research data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4449ADA8-A75A-458B-B116-D25DF40433C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codes" sheetId="1" r:id="rId1"/>
@@ -540,12 +541,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="38" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -770,6 +771,13 @@
       <color rgb="FFA41508"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -793,47 +801,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1169,16 +1177,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="52.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2539,6 +2550,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B170" numberStoredAsText="1"/>
@@ -2547,6 +2559,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationWizId xmlns="e572533b-9963-4257-a188-8bdc004ce52b" xsi:nil="true"/>
+    <MigrationWizIdPermissionLevels xmlns="e572533b-9963-4257-a188-8bdc004ce52b" xsi:nil="true"/>
+    <MigrationWizIdSecurityGroups xmlns="e572533b-9963-4257-a188-8bdc004ce52b" xsi:nil="true"/>
+    <MigrationWizIdPermissions xmlns="e572533b-9963-4257-a188-8bdc004ce52b" xsi:nil="true"/>
+    <MigrationWizIdDocumentLibraryPermissions xmlns="e572533b-9963-4257-a188-8bdc004ce52b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C9757BE0587F14AA1CF0E27E98526AF" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b92201900049488850b27170a5852cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e572533b-9963-4257-a188-8bdc004ce52b" xmlns:ns4="25a2ed53-d1f6-4a8f-8766-30d2e7296a9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="082972624fcbdc0e5433cec0303c1e23" ns3:_="" ns4:_="">
     <xsd:import namespace="e572533b-9963-4257-a188-8bdc004ce52b"/>
@@ -2805,28 +2838,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29567673-7A28-4909-9658-0679B8DBAF28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="25a2ed53-d1f6-4a8f-8766-30d2e7296a9f"/>
+    <ds:schemaRef ds:uri="e572533b-9963-4257-a188-8bdc004ce52b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MigrationWizId xmlns="e572533b-9963-4257-a188-8bdc004ce52b" xsi:nil="true"/>
-    <MigrationWizIdPermissionLevels xmlns="e572533b-9963-4257-a188-8bdc004ce52b" xsi:nil="true"/>
-    <MigrationWizIdSecurityGroups xmlns="e572533b-9963-4257-a188-8bdc004ce52b" xsi:nil="true"/>
-    <MigrationWizIdPermissions xmlns="e572533b-9963-4257-a188-8bdc004ce52b" xsi:nil="true"/>
-    <MigrationWizIdDocumentLibraryPermissions xmlns="e572533b-9963-4257-a188-8bdc004ce52b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E5588B-46F1-40D9-9CE6-447283CD4732}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFFAC3A0-BE2C-4C00-BE6F-030510A156F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2843,29 +2880,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E5588B-46F1-40D9-9CE6-447283CD4732}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29567673-7A28-4909-9658-0679B8DBAF28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="25a2ed53-d1f6-4a8f-8766-30d2e7296a9f"/>
-    <ds:schemaRef ds:uri="e572533b-9963-4257-a188-8bdc004ce52b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>